--- a/data/trans_dic/P16A06-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01900130248113939</v>
+        <v>0.01923240075579976</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01164048652191264</v>
+        <v>0.01132946599716971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.017544371148235</v>
+        <v>0.01638631341327427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08240697143777988</v>
+        <v>0.08826409926229238</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05614005381052003</v>
+        <v>0.05712494979550153</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0757871574675715</v>
+        <v>0.07643199576569835</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0878654485878502</v>
+        <v>0.08831906510023194</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1449236864165685</v>
+        <v>0.1421646786224162</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04581605064425372</v>
+        <v>0.04545017706925437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04695024116886046</v>
+        <v>0.04693705039076539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05775260196615934</v>
+        <v>0.05782236977201702</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1248785408436714</v>
+        <v>0.1250033248748195</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04706821151652811</v>
+        <v>0.04829069967879843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03265009573485863</v>
+        <v>0.0325990213848172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0367271902515195</v>
+        <v>0.03647760361536042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1383069128092127</v>
+        <v>0.1475867419320927</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09167431380751197</v>
+        <v>0.09294913135267176</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1107581595413049</v>
+        <v>0.1138069910508806</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.123561051721488</v>
+        <v>0.12339354664514</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1955643369932784</v>
+        <v>0.1970838426707339</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07091178237680379</v>
+        <v>0.06906602205259681</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06790752320827451</v>
+        <v>0.06765866340552446</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07995750646356162</v>
+        <v>0.07754501093550659</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1634495857749587</v>
+        <v>0.1637370423645668</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.04632253596757372</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0858116767111313</v>
+        <v>0.08581167671113127</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01098161497769259</v>
+        <v>0.01018853752773083</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01101386502850314</v>
+        <v>0.01110518303369971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01670688718151669</v>
+        <v>0.01697616837858729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03887067858843469</v>
+        <v>0.03944857937047554</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02600284042065093</v>
+        <v>0.02710184053478137</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04347448211040963</v>
+        <v>0.04386381461660158</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0492267020816444</v>
+        <v>0.04822259872732751</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1012064215512824</v>
+        <v>0.1005238859790779</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02018043840585105</v>
+        <v>0.02042753000113363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03116896508610159</v>
+        <v>0.03131567271413874</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03791393868562957</v>
+        <v>0.03665956719809556</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07541232002272587</v>
+        <v>0.07544813283776111</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02640319561392633</v>
+        <v>0.02671178825220755</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03276698679477158</v>
+        <v>0.03119470516647324</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03911668527049244</v>
+        <v>0.03869868674667177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06589548214281019</v>
+        <v>0.06526317222810418</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04911713411811763</v>
+        <v>0.0512659702351673</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07400525597742229</v>
+        <v>0.07217951730519831</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08479069385977972</v>
+        <v>0.08155580934459392</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1316600352305833</v>
+        <v>0.13085117031774</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03444082854134434</v>
+        <v>0.034234026050954</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05056833495806323</v>
+        <v>0.04997254482954672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05808886960166981</v>
+        <v>0.05745388087431729</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09591758644157902</v>
+        <v>0.09782169916730672</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03745434522562421</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06198911936683975</v>
+        <v>0.06198911936683976</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009080602333405104</v>
+        <v>0.009123863960344935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008961509072966792</v>
+        <v>0.0093534535131612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01333263366875731</v>
+        <v>0.01371679879816869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03131403487021792</v>
+        <v>0.03094406304280505</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01318024312756042</v>
+        <v>0.01282616144302122</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03369573239164716</v>
+        <v>0.03483221119907977</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03847800422111684</v>
+        <v>0.03702035985680491</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07066182249932149</v>
+        <v>0.07055279117560273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01292648778431547</v>
+        <v>0.0126346595455155</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02344762908304828</v>
+        <v>0.02393244430303785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02810197128352344</v>
+        <v>0.02836532534291317</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05324608685760889</v>
+        <v>0.05318714989897412</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02594313601027759</v>
+        <v>0.02412527486043535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02850858435931332</v>
+        <v>0.02791331749873916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03624526262483981</v>
+        <v>0.03505724337408574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05391857725134518</v>
+        <v>0.05409663685874494</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03215995051149823</v>
+        <v>0.03168072928285476</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0631407728034119</v>
+        <v>0.0642403836941028</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07372700090911216</v>
+        <v>0.07159133576764105</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09796568726705467</v>
+        <v>0.09673482614488779</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02489794852907919</v>
+        <v>0.02429190534170657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0407347831902531</v>
+        <v>0.0412012428939583</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04723003726097701</v>
+        <v>0.04800604416641315</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07275191524797596</v>
+        <v>0.07084846906419953</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05621824258680844</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07036974112559816</v>
+        <v>0.07036974112559813</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0241673466381047</v>
@@ -1105,7 +1105,7 @@
         <v>0.04374161101396665</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05142249206296633</v>
+        <v>0.05142249206296631</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01033880469983243</v>
+        <v>0.01024419673704871</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.017610070370862</v>
+        <v>0.01759445966652476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01896737052474318</v>
+        <v>0.01879992766383858</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02450679651681703</v>
+        <v>0.02395290647059274</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01454553538349651</v>
+        <v>0.01454167705764046</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01772782509947196</v>
+        <v>0.01817667866707405</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03807670238712669</v>
+        <v>0.03760128485294491</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05698298338530136</v>
+        <v>0.05902591610161662</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01548253983657898</v>
+        <v>0.01495382958822424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02216862519441487</v>
+        <v>0.02126798234771381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03245778555110177</v>
+        <v>0.03231592711561993</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04239309657886296</v>
+        <v>0.04365350565980317</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03703577218395084</v>
+        <v>0.03643910510832365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05121463001368055</v>
+        <v>0.05013523956989905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04737881447949052</v>
+        <v>0.05053921584759506</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04641042505153688</v>
+        <v>0.0471053721802233</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05250879744260296</v>
+        <v>0.05334230064694367</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05375386984413048</v>
+        <v>0.05137119001514742</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08106267803392056</v>
+        <v>0.08035256047247052</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08378356239174022</v>
+        <v>0.08430379842623233</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03647988804922783</v>
+        <v>0.03600841474247077</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04452138295225072</v>
+        <v>0.0444722335294728</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05850788405262582</v>
+        <v>0.05722189085260053</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06125356731161238</v>
+        <v>0.06058312827184387</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02583922341434573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05187241401431743</v>
+        <v>0.05187241401431746</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04153925718609564</v>
@@ -1241,7 +1241,7 @@
         <v>0.05111030953624069</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07875527450655748</v>
+        <v>0.07875527450655746</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01476276631297875</v>
+        <v>0.01508822431902848</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0155585072061945</v>
+        <v>0.01558220331859756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02117740353420428</v>
+        <v>0.0204132737075372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04489254311577449</v>
+        <v>0.04507653630119933</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03500481434693364</v>
+        <v>0.03466478863004354</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05480647259358386</v>
+        <v>0.05474185630653472</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06660355183983743</v>
+        <v>0.06607889974028897</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09586151345443113</v>
+        <v>0.09640203217886917</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02662239167443616</v>
+        <v>0.0266208289050831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03701244684378097</v>
+        <v>0.03713871253728087</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0455143929010769</v>
+        <v>0.04569983976766508</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07340859075179958</v>
+        <v>0.07368512318197078</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0242837746872973</v>
+        <v>0.02406027446802997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02640383315064048</v>
+        <v>0.02621572640499218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03222781939937697</v>
+        <v>0.03227743878674283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05912811969465029</v>
+        <v>0.05899478938086624</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0485131280439322</v>
+        <v>0.04920751552979843</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07146438773453871</v>
+        <v>0.07071720794108181</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08404215640797255</v>
+        <v>0.08464954311641094</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1124019039943597</v>
+        <v>0.1122039456766973</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03500571868393428</v>
+        <v>0.03551835354297792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04717869897566836</v>
+        <v>0.04682523743019625</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0568238800484029</v>
+        <v>0.05657378425528805</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08505303268875553</v>
+        <v>0.08438896568359068</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11099</v>
+        <v>11234</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12080</v>
+        <v>11757</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19790</v>
+        <v>18484</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>41100</v>
+        <v>44021</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51780</v>
+        <v>52688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>84328</v>
+        <v>85046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110672</v>
+        <v>111243</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>90165</v>
+        <v>88449</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>69021</v>
+        <v>68470</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>100964</v>
+        <v>100936</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>137888</v>
+        <v>138054</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>139976</v>
+        <v>140116</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27494</v>
+        <v>28209</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33883</v>
+        <v>33830</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41428</v>
+        <v>41147</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>68979</v>
+        <v>73607</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>84554</v>
+        <v>85730</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123241</v>
+        <v>126633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>155633</v>
+        <v>155422</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>121672</v>
+        <v>122617</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106827</v>
+        <v>104046</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>146032</v>
+        <v>145497</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>190903</v>
+        <v>185143</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>183210</v>
+        <v>183532</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11837</v>
+        <v>10982</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10742</v>
+        <v>10831</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15184</v>
+        <v>15428</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37302</v>
+        <v>37857</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27499</v>
+        <v>28661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47482</v>
+        <v>47907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49545</v>
+        <v>48535</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>112870</v>
+        <v>112109</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43094</v>
+        <v>43622</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>64443</v>
+        <v>64746</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>72617</v>
+        <v>70214</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>156472</v>
+        <v>156546</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28460</v>
+        <v>28792</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31959</v>
+        <v>30426</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35550</v>
+        <v>35170</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63236</v>
+        <v>62629</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51943</v>
+        <v>54216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>80827</v>
+        <v>78833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>85340</v>
+        <v>82084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>146833</v>
+        <v>145931</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73546</v>
+        <v>73104</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>104551</v>
+        <v>103319</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>111258</v>
+        <v>110041</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>199018</v>
+        <v>202969</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10176</v>
+        <v>10224</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7924</v>
+        <v>8270</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10983</v>
+        <v>11299</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32769</v>
+        <v>32382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13100</v>
+        <v>12748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29444</v>
+        <v>30437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29669</v>
+        <v>28545</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>74005</v>
+        <v>73891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27333</v>
+        <v>26716</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41221</v>
+        <v>42073</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>44818</v>
+        <v>45238</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>111486</v>
+        <v>111363</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29071</v>
+        <v>27034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25207</v>
+        <v>24681</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29857</v>
+        <v>28879</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56425</v>
+        <v>56611</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31965</v>
+        <v>31489</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55174</v>
+        <v>56135</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56848</v>
+        <v>55201</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>102600</v>
+        <v>101311</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52647</v>
+        <v>51366</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>71612</v>
+        <v>72432</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>75323</v>
+        <v>76561</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>152327</v>
+        <v>148342</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4624</v>
+        <v>4581</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8858</v>
+        <v>8850</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9611</v>
+        <v>9526</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23917</v>
+        <v>23376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7993</v>
+        <v>8195</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18646</v>
+        <v>18413</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51777</v>
+        <v>53633</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12206</v>
+        <v>11789</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21146</v>
+        <v>20287</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32341</v>
+        <v>32200</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>79893</v>
+        <v>82268</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16562</v>
+        <v>16296</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25762</v>
+        <v>25219</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24007</v>
+        <v>25608</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45293</v>
+        <v>45971</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17914</v>
+        <v>18198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24236</v>
+        <v>23162</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39696</v>
+        <v>39348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>76129</v>
+        <v>76602</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28759</v>
+        <v>28388</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42469</v>
+        <v>42422</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>58297</v>
+        <v>57016</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115437</v>
+        <v>114173</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47681</v>
+        <v>48732</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>52904</v>
+        <v>52984</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>71310</v>
+        <v>68737</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156261</v>
+        <v>156902</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>116040</v>
+        <v>114913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>193443</v>
+        <v>193215</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>234897</v>
+        <v>233047</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>354051</v>
+        <v>356047</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>174238</v>
+        <v>174227</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>256492</v>
+        <v>257367</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>313780</v>
+        <v>315058</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>526644</v>
+        <v>528628</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>78432</v>
+        <v>77710</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>89781</v>
+        <v>89142</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108520</v>
+        <v>108687</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>205813</v>
+        <v>205348</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>160820</v>
+        <v>163121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>252239</v>
+        <v>249601</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>296399</v>
+        <v>298541</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>415140</v>
+        <v>414409</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>229105</v>
+        <v>232460</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>326943</v>
+        <v>324493</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>391748</v>
+        <v>390024</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>610183</v>
+        <v>605419</v>
       </c>
     </row>
     <row r="24">
